--- a/notebooks/viz/assets/fact-completion-benchmark-results.xlsx
+++ b/notebooks/viz/assets/fact-completion-benchmark-results.xlsx
@@ -5,8 +5,11 @@
   <sheets>
     <sheet state="visible" name="llama" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="bloom" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="m-bert" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="xlm-roberta" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="m_bert" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="xlm_roberta" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="averages" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="en-bench" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="multilingual-bench" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>language</t>
   </si>
@@ -40,15 +43,27 @@
     <t>French</t>
   </si>
   <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
     <t>Portuguese</t>
   </si>
   <si>
+    <t>Romanian</t>
+  </si>
+  <si>
     <t>Danish</t>
   </si>
   <si>
     <t>Spanish</t>
   </si>
   <si>
+    <t>Czech</t>
+  </si>
+  <si>
     <t>Polish</t>
   </si>
   <si>
@@ -58,6 +73,9 @@
     <t>Slovenian</t>
   </si>
   <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
     <t>Ukrainian</t>
   </si>
   <si>
@@ -67,29 +85,88 @@
     <t>Russian</t>
   </si>
   <si>
-    <t>Romanian</t>
-  </si>
-  <si>
-    <t>Catalan</t>
-  </si>
-  <si>
-    <t>Swedish</t>
-  </si>
-  <si>
-    <t>Hungarian</t>
-  </si>
-  <si>
     <t>Serbian</t>
   </si>
   <si>
-    <t>Czech</t>
+    <t>average accuracy</t>
+  </si>
+  <si>
+    <t>average uncertainty</t>
+  </si>
+  <si>
+    <t>llama</t>
+  </si>
+  <si>
+    <t>bloom</t>
+  </si>
+  <si>
+    <t>m-bert</t>
+  </si>
+  <si>
+    <t>xlm-roberta</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>English-only
+(% correct)</t>
+  </si>
+  <si>
+    <t>Random Baseline</t>
+  </si>
+  <si>
+    <t>llama-30b</t>
+  </si>
+  <si>
+    <t>llama-13b</t>
+  </si>
+  <si>
+    <t>llama-7b</t>
+  </si>
+  <si>
+    <t>opt-13b</t>
+  </si>
+  <si>
+    <t>gpt-neox-20b</t>
+  </si>
+  <si>
+    <t>gpt-j-6b</t>
+  </si>
+  <si>
+    <t>pythia-12b</t>
+  </si>
+  <si>
+    <t>t5-v1-xxl</t>
+  </si>
+  <si>
+    <t>bloom-7b1</t>
+  </si>
+  <si>
+    <t>gpt2-xl</t>
+  </si>
+  <si>
+    <t>m-bert-base</t>
+  </si>
+  <si>
+    <t>mt5-xxl</t>
+  </si>
+  <si>
+    <t>xlm-roberta-large</t>
+  </si>
+  <si>
+    <t>mt5-xl</t>
+  </si>
+  <si>
+    <t>20 Languages
+(avg % correct)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,9 +199,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF1F2328"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF1F2328"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF1F2328"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF1F2328"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -167,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -184,20 +289,37 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +342,18 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -503,26 +637,26 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>83.81</v>
+      <c r="B7" s="5">
+        <v>84.06</v>
       </c>
       <c r="C7" s="5">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>81.79</v>
+      <c r="B8" s="5">
+        <v>84.01</v>
       </c>
       <c r="C8" s="5">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -531,22 +665,22 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>81.74</v>
+        <v>83.81</v>
       </c>
       <c r="C9" s="5">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>77.5</v>
+        <v>82.72</v>
       </c>
       <c r="C10" s="5">
-        <v>0.83</v>
+        <v>0.56</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -555,10 +689,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>76.69</v>
+        <v>81.79</v>
       </c>
       <c r="C11" s="5">
-        <v>0.97</v>
+        <v>0.49</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -567,22 +701,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>75.99</v>
+        <v>81.74</v>
       </c>
       <c r="C12" s="5">
-        <v>0.96</v>
+        <v>0.54</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
-        <v>73.0</v>
+      <c r="B13" s="5">
+        <v>77.94</v>
       </c>
       <c r="C13" s="5">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -591,94 +725,94 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="C14" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>0.83</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4">
+        <v>76.69</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>75.99</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>75.74</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
         <v>69.72</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C20" s="5">
         <v>1.58</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
-        <v>82.72</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.56</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <v>84.01</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
-        <v>84.06</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>75.74</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
         <v>60.01</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>1.28</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <v>77.94</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.85</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -698,13 +832,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -715,195 +849,218 @@
       <c r="B2" s="4">
         <v>76.16</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>0.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>63.68</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.75</v>
+        <v>72.35</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
-        <v>58.1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.63</v>
+        <v>71.88</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>10.0</v>
+        <v>70.81</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
-        <v>72.35</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.65</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>69.23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>71.88</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.58</v>
+        <v>63.68</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>10.0</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>63.38</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>10.0</v>
+        <v>58.1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.63</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
+      <c r="A10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>49.17</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>57.21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>55.66</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8">
-        <v>47.75</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1.12</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="5">
+        <v>53.27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.7</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
+      <c r="A13" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>50.15</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1.11</v>
+        <v>52.57</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>50.15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>50.13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>49.24</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <v>53.27</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="B17" s="5">
+        <v>49.17</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <v>48.88</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
-        <v>52.57</v>
-      </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
-        <v>57.21</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="B20" s="5">
+        <v>47.75</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
         <v>45.72</v>
       </c>
-      <c r="C20" s="7">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="5">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -921,13 +1078,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -938,7 +1095,7 @@
       <c r="B2" s="4">
         <v>71.8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>0.55</v>
       </c>
     </row>
@@ -947,86 +1104,167 @@
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>10.0</v>
-      </c>
+        <v>69.85</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>68.0</v>
-      </c>
-      <c r="C4" s="8">
+        <v>68.7</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>10.0</v>
+        <v>68.0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>64.6</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>67.89</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.601</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
+      <c r="A7" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.6</v>
-      </c>
+        <v>65.48</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>10.0</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>65.04</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
+      <c r="A9" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>61.54</v>
-      </c>
-      <c r="C9" s="8">
+        <v>64.62</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>58.31</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.99</v>
+        <v>64.6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>62.6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
@@ -1034,101 +1272,202 @@
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>59.34</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1.1</v>
+        <v>61.54</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <v>60.09</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
-        <v>55.39</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="B14" s="5">
+        <v>59.48</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
+        <v>59.34</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
+        <v>58.71</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.13</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>58.31</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>55.78</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <v>55.39</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
         <v>55.21</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C20" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5">
-        <v>64.62</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
-        <v>68.7</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
         <v>49.6</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="6">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1146,13 +1485,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1163,172 +1502,957 @@
       <c r="B2" s="4">
         <v>61.55</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>0.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>10.0</v>
-      </c>
+        <v>61.02</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>10.0</v>
-      </c>
+        <v>59.66</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>10.0</v>
-      </c>
+        <v>59.19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>54.75</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.72</v>
-      </c>
+        <v>57.62</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>10.0</v>
-      </c>
+        <v>57.49</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>10.0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>56.78</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>10.0</v>
-      </c>
+        <v>56.59</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>10.0</v>
-      </c>
+        <v>55.89</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
+      <c r="A11" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
-      </c>
+        <v>55.67</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="5">
-        <v>10.0</v>
-      </c>
+        <v>55.46</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5">
-        <v>10.0</v>
-      </c>
+        <v>55.08</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>54.92</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5">
-        <v>10.0</v>
-      </c>
+        <v>54.78</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>54.75</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <v>54.39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="5">
+        <v>54.21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.09</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="B19" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>53.76</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.12</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
+      <c r="A20" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B20" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>53.05</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>48.71</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="19.88"/>
+    <col customWidth="1" min="3" max="3" width="17.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12">
+        <f>round(average(llama!B2:B21), 2)</f>
+        <v>79.31</v>
+      </c>
+      <c r="C2" s="12">
+        <f>round(average(llama!C2:C21), 2)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12">
+        <f>round(average(bloom!B2:B21), 2)</f>
+        <v>57.7</v>
+      </c>
+      <c r="C3" s="12">
+        <f>round(average(bloom!C2:C21), 2)</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12">
+        <f>round(average(m_bert!B2:B21),0)</f>
+        <v>62</v>
+      </c>
+      <c r="C4" s="12">
+        <f>round(average(m_bert!C2:C21), 2)</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <f>round(average(xlm_roberta!B2:B21), 2)</f>
+        <v>56.03</v>
+      </c>
+      <c r="C5" s="12">
+        <f>round(average(xlm_roberta!C2:C21), 2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="15.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="15">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="17">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17">
+        <v>86.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="17">
+        <v>85.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="17">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="17">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="17">
+        <v>81.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="17">
+        <v>80.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="17">
+        <v>76.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="17">
+        <v>76.16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="17">
+        <v>73.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="17">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="17">
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="17">
+        <v>61.55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="17">
+        <v>59.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId3" ref="A5"/>
+    <hyperlink r:id="rId4" ref="A6"/>
+    <hyperlink r:id="rId5" ref="A7"/>
+    <hyperlink r:id="rId6" location="gpt-j-6B" ref="A8"/>
+    <hyperlink r:id="rId7" ref="A9"/>
+    <hyperlink r:id="rId8" ref="A10"/>
+    <hyperlink r:id="rId9" ref="A11"/>
+    <hyperlink r:id="rId10" ref="A12"/>
+    <hyperlink r:id="rId11" ref="A13"/>
+    <hyperlink r:id="rId12" ref="A14"/>
+    <hyperlink r:id="rId13" ref="A15"/>
+    <hyperlink r:id="rId14" ref="A16"/>
+  </hyperlinks>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="20.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="15">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="17">
+        <v>79.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="17">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="17">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="17">
+        <v>56.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17">
+        <v>55.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId3" ref="A5"/>
+    <hyperlink r:id="rId4" ref="A6"/>
+    <hyperlink r:id="rId5" ref="A7"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
 </file>
--- a/notebooks/viz/assets/fact-completion-benchmark-results.xlsx
+++ b/notebooks/viz/assets/fact-completion-benchmark-results.xlsx
@@ -7,9 +7,10 @@
     <sheet state="visible" name="bloom" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="m_bert" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="xlm_roberta" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="averages" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="en-bench" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="multilingual-bench" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="mt5_xl" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="averages" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="en-bench" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="multilingual-bench" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
   <si>
     <t>language</t>
   </si>
@@ -28,6 +29,9 @@
     <t>uncertainty</t>
   </si>
   <si>
+    <t>num_pairs</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
@@ -104,6 +108,9 @@
   </si>
   <si>
     <t>xlm-roberta</t>
+  </si>
+  <si>
+    <t>mt5-xl</t>
   </si>
   <si>
     <t>Model</t>
@@ -153,9 +160,6 @@
   </si>
   <si>
     <t>xlm-roberta-large</t>
-  </si>
-  <si>
-    <t>mt5-xl</t>
   </si>
   <si>
     <t>20 Languages
@@ -166,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -182,13 +186,13 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FF1F2328"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF1F2328"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -208,6 +212,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
     </font>
     <font>
       <b/>
@@ -232,7 +241,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,12 +252,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F5F7"/>
-        <bgColor rgb="FFF4F5F7"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,30 +275,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -306,19 +311,20 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -354,6 +360,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -574,11 +584,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>89.4</v>
@@ -586,23 +598,27 @@
       <c r="C2" s="5">
         <v>0.38</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="6">
+        <v>26254.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>85.74</v>
       </c>
       <c r="C3" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="6">
+        <v>16287.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>85.35</v>
@@ -610,47 +626,55 @@
       <c r="C4" s="5">
         <v>0.46</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6">
+        <v>25590.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>84.39</v>
       </c>
       <c r="C5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20448.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>84.18</v>
       </c>
       <c r="C6" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18395.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>84.06</v>
       </c>
       <c r="C7" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="D7" s="6">
+        <v>21576.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>84.01</v>
@@ -658,11 +682,13 @@
       <c r="C8" s="5">
         <v>0.52</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6">
+        <v>18898.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>83.81</v>
@@ -670,71 +696,83 @@
       <c r="C9" s="5">
         <v>0.48</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6">
+        <v>22974.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>82.72</v>
       </c>
       <c r="C10" s="5">
-        <v>0.56</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>0.57</v>
+      </c>
+      <c r="D10" s="6">
+        <v>17568.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>81.79</v>
       </c>
       <c r="C11" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>23365.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
         <v>81.74</v>
       </c>
       <c r="C12" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>0.57</v>
+      </c>
+      <c r="D12" s="6">
+        <v>18786.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>77.94</v>
       </c>
       <c r="C13" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9427.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>77.5</v>
       </c>
       <c r="C14" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="D14" s="6">
+        <v>9484.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
         <v>76.69</v>
@@ -742,47 +780,55 @@
       <c r="C15" s="5">
         <v>0.97</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="6">
+        <v>7358.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4">
         <v>75.99</v>
       </c>
       <c r="C16" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="6">
+        <v>7873.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5">
         <v>75.74</v>
       </c>
       <c r="C17" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4650.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4">
         <v>73.0</v>
       </c>
       <c r="C18" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>0.98</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7918.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4">
         <v>72.5</v>
@@ -790,31 +836,37 @@
       <c r="C19" s="5">
         <v>0.61</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>20577.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4">
         <v>69.72</v>
       </c>
       <c r="C20" s="5">
-        <v>1.58</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>1.57</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3289.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>60.01</v>
       </c>
       <c r="C21" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5426.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -844,7 +896,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>76.16</v>
@@ -855,7 +907,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>72.35</v>
@@ -866,7 +918,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>71.88</v>
@@ -877,7 +929,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>70.81</v>
@@ -888,7 +940,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>69.23</v>
@@ -899,7 +951,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>63.68</v>
@@ -910,7 +962,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>63.38</v>
@@ -921,7 +973,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
         <v>58.1</v>
@@ -932,7 +984,7 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>57.21</v>
@@ -943,7 +995,7 @@
     </row>
     <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5">
         <v>55.66</v>
@@ -954,7 +1006,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>53.27</v>
@@ -965,7 +1017,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>52.57</v>
@@ -976,7 +1028,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
         <v>50.15</v>
@@ -987,7 +1039,7 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>50.13</v>
@@ -998,7 +1050,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5">
         <v>49.24</v>
@@ -1009,7 +1061,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>49.17</v>
@@ -1020,7 +1072,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <v>48.88</v>
@@ -1031,7 +1083,7 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>48.75</v>
@@ -1042,7 +1094,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5">
         <v>47.75</v>
@@ -1053,7 +1105,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>45.72</v>
@@ -1090,7 +1142,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>71.8</v>
@@ -1101,7 +1153,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>69.85</v>
@@ -1135,7 +1187,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>68.7</v>
@@ -1146,7 +1198,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>68.0</v>
@@ -1157,7 +1209,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>67.89</v>
@@ -1191,7 +1243,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>65.48</v>
@@ -1225,7 +1277,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>65.04</v>
@@ -1236,7 +1288,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>64.62</v>
@@ -1247,7 +1299,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>64.6</v>
@@ -1258,7 +1310,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>62.6</v>
@@ -1269,7 +1321,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>61.54</v>
@@ -1280,7 +1332,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5">
         <v>60.09</v>
@@ -1314,7 +1366,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>59.48</v>
@@ -1348,7 +1400,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5">
         <v>59.34</v>
@@ -1359,7 +1411,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5">
         <v>58.71</v>
@@ -1393,7 +1445,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>58.31</v>
@@ -1404,7 +1456,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4">
         <v>55.78</v>
@@ -1438,7 +1490,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
         <v>55.39</v>
@@ -1449,7 +1501,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5">
         <v>55.21</v>
@@ -1460,7 +1512,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>49.6</v>
@@ -1497,7 +1549,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>61.55</v>
@@ -1508,7 +1560,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>61.02</v>
@@ -1542,7 +1594,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>59.66</v>
@@ -1576,7 +1628,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>59.19</v>
@@ -1610,7 +1662,7 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>57.62</v>
@@ -1644,7 +1696,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>57.49</v>
@@ -1678,7 +1730,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>56.78</v>
@@ -1712,7 +1764,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>56.59</v>
@@ -1746,7 +1798,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5">
         <v>55.89</v>
@@ -1780,7 +1832,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <v>55.67</v>
@@ -1814,7 +1866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>55.46</v>
@@ -1848,7 +1900,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5">
         <v>55.08</v>
@@ -1882,7 +1934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5">
         <v>54.92</v>
@@ -1916,7 +1968,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>54.78</v>
@@ -1950,7 +2002,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5">
         <v>54.75</v>
@@ -1961,7 +2013,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
         <v>54.39</v>
@@ -1995,7 +2047,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
         <v>54.21</v>
@@ -2029,7 +2081,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
         <v>53.76</v>
@@ -2063,7 +2115,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5">
         <v>53.05</v>
@@ -2097,7 +2149,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>48.71</v>
@@ -2143,69 +2195,236 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="19.88"/>
-    <col customWidth="1" min="3" max="3" width="17.5"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>59.96</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>52.74</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>51.84</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>58.35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>52.88</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>58.07</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>48.41</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>53.48</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>53.05</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>55.76</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>51.43</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>46.05</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>50.64</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>50.35</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5">
+        <v>52.81</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5">
+        <v>52.53</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>53.107</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <v>48.35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="12">
-        <f>round(average(llama!B2:B21), 2)</f>
-        <v>79.31</v>
-      </c>
-      <c r="C2" s="12">
-        <f>round(average(llama!C2:C21), 2)</f>
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="12">
-        <f>round(average(bloom!B2:B21), 2)</f>
-        <v>57.7</v>
-      </c>
-      <c r="C3" s="12">
-        <f>round(average(bloom!C2:C21), 2)</f>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="12">
-        <f>round(average(m_bert!B2:B21),0)</f>
-        <v>62</v>
-      </c>
-      <c r="C4" s="12">
-        <f>round(average(m_bert!C2:C21), 2)</f>
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="12">
-        <f>round(average(xlm_roberta!B2:B21), 2)</f>
-        <v>56.03</v>
-      </c>
-      <c r="C5" s="12">
-        <f>round(average(xlm_roberta!C2:C21), 2)</f>
-        <v>0.9</v>
+      <c r="B21" s="5">
+        <v>48.32</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -2223,135 +2442,227 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="19.88"/>
+    <col customWidth="1" min="3" max="3" width="17.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12">
+        <f>round(average(llama!B2:B21), 2)</f>
+        <v>79.31</v>
+      </c>
+      <c r="C2" s="12">
+        <f>round(average(llama!C2:C21), 2)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12">
+        <f>round(average(bloom!B2:B21), 2)</f>
+        <v>57.7</v>
+      </c>
+      <c r="C3" s="12">
+        <f>round(average(bloom!C2:C21), 2)</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12">
+        <f>round(average(m_bert!B2:B21),0)</f>
+        <v>62</v>
+      </c>
+      <c r="C4" s="12">
+        <f>round(average(m_bert!C2:C21), 2)</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12">
+        <f>round(average(xlm_roberta!B2:B21), 2)</f>
+        <v>56.03</v>
+      </c>
+      <c r="C5" s="12">
+        <f>round(average(xlm_roberta!C2:C21), 2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="13">
+        <f>round(average(mt5_xl!B2:B21), 2)</f>
+        <v>52.51</v>
+      </c>
+      <c r="C6" s="13">
+        <f>round(average(mt5_xl!C2:C21), 2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="15.13"/>
     <col customWidth="1" min="2" max="2" width="15.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="18">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="18">
+        <v>86.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="18">
+        <v>85.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="18">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18">
+        <v>81.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18">
+        <v>80.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="18">
+        <v>76.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="18">
+        <v>76.16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="18">
+        <v>73.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="18">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="18">
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="18">
+        <v>61.55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="15">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="17">
-        <v>89.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="17">
-        <v>86.66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="17">
-        <v>85.53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17">
-        <v>81.94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="17">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="17">
-        <v>81.14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="17">
-        <v>80.53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="17">
-        <v>76.55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="17">
-        <v>76.16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="17">
-        <v>73.76</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="17">
-        <v>71.8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="17">
-        <v>61.58</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="17">
-        <v>61.55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="B16" s="18">
         <v>59.96</v>
       </c>
     </row>
@@ -2376,7 +2687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2390,59 +2701,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="16">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="18">
+        <v>79.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="18">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="18">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="15">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="17">
-        <v>79.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="17">
-        <v>57.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>56.03</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17">
-        <v>55.0</v>
+      <c r="A7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18">
+        <v>52.51</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/viz/assets/fact-completion-benchmark-results.xlsx
+++ b/notebooks/viz/assets/fact-completion-benchmark-results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
   <si>
     <t>language</t>
   </si>
@@ -132,6 +132,12 @@
     <t>llama-7b</t>
   </si>
   <si>
+    <t>mpt-7b</t>
+  </si>
+  <si>
+    <t>opt-30b</t>
+  </si>
+  <si>
     <t>opt-13b</t>
   </si>
   <si>
@@ -153,7 +159,13 @@
     <t>gpt2-xl</t>
   </si>
   <si>
+    <t>bert-base</t>
+  </si>
+  <si>
     <t>m-bert-base</t>
+  </si>
+  <si>
+    <t>stablelm-base-7b</t>
   </si>
   <si>
     <t>mt5-xxl</t>
@@ -2534,7 +2546,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
     <col customWidth="1" min="2" max="2" width="15.25"/>
   </cols>
   <sheetData>
@@ -2553,127 +2565,197 @@
       <c r="B2" s="16">
         <v>50.0</v>
       </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>89.4</v>
       </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>86.66</v>
       </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>85.53</v>
       </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="18">
-        <v>81.94</v>
-      </c>
+      <c r="B6" s="16">
+        <v>83.39</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="18">
-        <v>81.5</v>
-      </c>
+      <c r="B7" s="16">
+        <v>82.09</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18">
-        <v>81.14</v>
-      </c>
+      <c r="B8" s="16">
+        <v>81.94</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="18">
-        <v>80.53</v>
-      </c>
+      <c r="B9" s="16">
+        <v>81.5</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="18">
-        <v>76.55</v>
-      </c>
+      <c r="B10" s="16">
+        <v>81.14</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="18">
-        <v>76.16</v>
-      </c>
+      <c r="B11" s="16">
+        <v>80.53</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="18">
-        <v>73.76</v>
-      </c>
+      <c r="B12" s="16">
+        <v>76.55</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="18">
-        <v>71.8</v>
-      </c>
+      <c r="B13" s="16">
+        <v>76.16</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="18">
-        <v>61.58</v>
-      </c>
+      <c r="B14" s="16">
+        <v>73.76</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="18">
-        <v>61.55</v>
-      </c>
+      <c r="B15" s="16">
+        <v>72.6</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="16">
+        <v>71.8</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="16">
+        <v>68.85</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="16">
+        <v>61.58</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="16">
+        <v>61.55</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B20" s="18">
         <v>59.96</v>
       </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
+    <hyperlink r:id="rId1" location="llama" ref="A3"/>
+    <hyperlink r:id="rId2" location="llama" ref="A4"/>
+    <hyperlink r:id="rId3" location="llama" ref="A5"/>
     <hyperlink r:id="rId4" ref="A6"/>
     <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" location="gpt-j-6B" ref="A8"/>
+    <hyperlink r:id="rId6" ref="A8"/>
     <hyperlink r:id="rId7" ref="A9"/>
     <hyperlink r:id="rId8" ref="A10"/>
     <hyperlink r:id="rId9" ref="A11"/>
@@ -2682,8 +2764,12 @@
     <hyperlink r:id="rId12" ref="A14"/>
     <hyperlink r:id="rId13" ref="A15"/>
     <hyperlink r:id="rId14" ref="A16"/>
+    <hyperlink r:id="rId15" ref="A17"/>
+    <hyperlink r:id="rId16" ref="A18"/>
+    <hyperlink r:id="rId17" ref="A19"/>
+    <hyperlink r:id="rId18" ref="A20"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2705,7 +2791,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -2726,7 +2812,7 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="18">
         <v>62.0</v>
@@ -2734,7 +2820,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="18">
         <v>57.7</v>
@@ -2742,7 +2828,7 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B6" s="18">
         <v>56.03</v>
